--- a/testcase/TestCase.xlsx
+++ b/testcase/TestCase.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26101"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaoM/Desktop/OSX/xiaoMWork/workspace/AppiumXM/testcase/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4780" yWindow="3320" windowWidth="20740" windowHeight="11760"/>
+    <workbookView xWindow="4785" yWindow="3315" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -28,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="76">
   <si>
     <t>用例ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,9 +88,6 @@
   </si>
   <si>
     <t>Sleep</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
   <si>
     <t>YES</t>
@@ -405,12 +397,23 @@
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>ById::com.testerhome.webview:id/next_page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Control</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -916,29 +919,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" width="9.625" customWidth="1"/>
+    <col min="2" max="2" width="10.375" customWidth="1"/>
+    <col min="3" max="3" width="20.375" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="17.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.875" customWidth="1"/>
+    <col min="6" max="6" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>1</v>
@@ -953,90 +956,110 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="19.5" customHeight="1">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>17</v>
+      <c r="D6" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F6">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1046,32 +1069,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" customWidth="1"/>
-    <col min="6" max="6" width="42.33203125" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" customWidth="1"/>
-    <col min="8" max="8" width="14.1640625" customWidth="1"/>
-    <col min="9" max="9" width="27.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="18.125" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="6" max="6" width="42.375" customWidth="1"/>
+    <col min="7" max="7" width="8.125" customWidth="1"/>
+    <col min="8" max="8" width="14.125" customWidth="1"/>
+    <col min="9" max="9" width="27.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>9</v>
@@ -1086,7 +1109,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>4</v>
@@ -1101,24 +1124,24 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="G2" s="2">
         <v>10</v>
@@ -1130,24 +1153,24 @@
       <c r="J2" s="2"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="27">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G3" s="2">
         <v>10</v>
@@ -1159,21 +1182,21 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4" s="15">
         <v>4</v>
@@ -1184,21 +1207,21 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F5" s="3">
         <v>5</v>
@@ -1209,24 +1232,24 @@
       <c r="J5" s="2"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="3"/>
@@ -1253,32 +1276,32 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G1"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" customWidth="1"/>
-    <col min="6" max="6" width="42.33203125" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" customWidth="1"/>
-    <col min="8" max="8" width="14.1640625" customWidth="1"/>
-    <col min="9" max="9" width="27.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="18.125" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="6" max="6" width="42.375" customWidth="1"/>
+    <col min="7" max="7" width="8.125" customWidth="1"/>
+    <col min="8" max="8" width="14.125" customWidth="1"/>
+    <col min="9" max="9" width="27.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>9</v>
@@ -1290,10 +1313,10 @@
         <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>4</v>
@@ -1308,24 +1331,24 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="G2" s="2">
         <v>5</v>
@@ -1337,24 +1360,24 @@
       <c r="J2" s="2"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="27">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G3" s="2">
         <v>5</v>
@@ -1366,21 +1389,21 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4" s="15">
         <v>4</v>
@@ -1391,18 +1414,18 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>16</v>
@@ -1416,24 +1439,24 @@
       <c r="J5" s="2"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G6" s="2">
         <v>10</v>
@@ -1442,29 +1465,29 @@
         <v>14</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="15" t="s">
         <v>50</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>51</v>
       </c>
       <c r="G7" s="2">
         <v>5</v>
@@ -1476,18 +1499,18 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>16</v>
@@ -1522,32 +1545,32 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" customWidth="1"/>
-    <col min="6" max="6" width="42.33203125" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" customWidth="1"/>
-    <col min="8" max="8" width="14.1640625" customWidth="1"/>
-    <col min="9" max="9" width="27.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="18.125" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="6" max="6" width="42.375" customWidth="1"/>
+    <col min="7" max="7" width="8.125" customWidth="1"/>
+    <col min="8" max="8" width="14.125" customWidth="1"/>
+    <col min="9" max="9" width="27.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>9</v>
@@ -1559,10 +1582,10 @@
         <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>4</v>
@@ -1577,24 +1600,24 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" s="16" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>54</v>
-      </c>
       <c r="D2" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G2" s="18"/>
       <c r="H2" s="17"/>
@@ -1602,24 +1625,24 @@
       <c r="J2" s="17"/>
       <c r="K2" s="17"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G3" s="2">
         <v>10</v>
@@ -1628,29 +1651,29 @@
         <v>14</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>50</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>51</v>
       </c>
       <c r="G4" s="2">
         <v>5</v>
@@ -1662,18 +1685,18 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>16</v>
@@ -1687,24 +1710,24 @@
       <c r="J5" s="2"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="5"/>
@@ -1734,32 +1757,32 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1"/>
-    <col min="6" max="6" width="42.33203125" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" customWidth="1"/>
-    <col min="8" max="8" width="14.1640625" customWidth="1"/>
-    <col min="9" max="9" width="27.1640625" customWidth="1"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="17.625" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="18.625" customWidth="1"/>
+    <col min="5" max="5" width="14.625" customWidth="1"/>
+    <col min="6" max="6" width="42.375" customWidth="1"/>
+    <col min="7" max="7" width="8.125" customWidth="1"/>
+    <col min="8" max="8" width="14.125" customWidth="1"/>
+    <col min="9" max="9" width="27.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>9</v>
@@ -1771,10 +1794,10 @@
         <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>4</v>
@@ -1789,24 +1812,24 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="G2" s="2">
         <v>10</v>
@@ -1818,24 +1841,24 @@
       <c r="J2" s="2"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="27">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G3" s="2">
         <v>12</v>
@@ -1847,21 +1870,21 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4" s="15">
         <v>4</v>
@@ -1872,18 +1895,18 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>16</v>

--- a/testcase/TestCase.xlsx
+++ b/testcase/TestCase.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="76">
   <si>
     <t>用例ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,10 +143,6 @@
   </si>
   <si>
     <t>WEBVIEW</t>
-  </si>
-  <si>
-    <t>测试HybrisAPP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>测试纯wap网页</t>
@@ -407,6 +403,10 @@
   </si>
   <si>
     <t>NO</t>
+  </si>
+  <si>
+    <t>测试普通HybrisAPP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -920,10 +920,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>1</v>
@@ -964,13 +964,13 @@
         <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>17</v>
@@ -983,14 +983,14 @@
       <c r="B3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>33</v>
+      <c r="C3" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>17</v>
@@ -1003,14 +1003,14 @@
       <c r="B4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>33</v>
+      <c r="C4" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>17</v>
@@ -1018,48 +1018,108 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="19.5" customHeight="1">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>75</v>
+      <c r="D9" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1109,7 +1169,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>4</v>
@@ -1135,13 +1195,13 @@
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G2" s="2">
         <v>10</v>
@@ -1164,13 +1224,13 @@
         <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" s="2">
         <v>10</v>
@@ -1193,10 +1253,10 @@
         <v>24</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4" s="15">
         <v>4</v>
@@ -1218,10 +1278,10 @@
         <v>25</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F5" s="3">
         <v>5</v>
@@ -1243,13 +1303,13 @@
         <v>26</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="3"/>
@@ -1313,10 +1373,10 @@
         <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>4</v>
@@ -1342,13 +1402,13 @@
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G2" s="2">
         <v>5</v>
@@ -1371,13 +1431,13 @@
         <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" s="2">
         <v>5</v>
@@ -1400,10 +1460,10 @@
         <v>24</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4" s="15">
         <v>4</v>
@@ -1419,13 +1479,13 @@
         <v>17</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>16</v>
@@ -1450,13 +1510,13 @@
         <v>26</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G6" s="2">
         <v>10</v>
@@ -1465,7 +1525,7 @@
         <v>14</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
@@ -1481,13 +1541,13 @@
         <v>27</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G7" s="2">
         <v>5</v>
@@ -1510,7 +1570,7 @@
         <v>25</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>16</v>
@@ -1582,10 +1642,10 @@
         <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>4</v>
@@ -1605,13 +1665,13 @@
         <v>17</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>53</v>
-      </c>
       <c r="D2" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>20</v>
@@ -1630,19 +1690,19 @@
         <v>17</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G3" s="2">
         <v>10</v>
@@ -1651,7 +1711,7 @@
         <v>14</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
@@ -1661,19 +1721,19 @@
         <v>17</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G4" s="2">
         <v>5</v>
@@ -1690,13 +1750,13 @@
         <v>17</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>16</v>
@@ -1715,19 +1775,19 @@
         <v>17</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>20</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="5"/>
@@ -1794,10 +1854,10 @@
         <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>4</v>
@@ -1823,13 +1883,13 @@
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G2" s="2">
         <v>10</v>
@@ -1852,13 +1912,13 @@
         <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" s="2">
         <v>12</v>
@@ -1881,10 +1941,10 @@
         <v>24</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4" s="15">
         <v>4</v>
@@ -1906,7 +1966,7 @@
         <v>25</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>16</v>

--- a/testcase/TestCase.xlsx
+++ b/testcase/TestCase.xlsx
@@ -923,7 +923,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -973,7 +973,7 @@
         <v>42</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -992,8 +992,8 @@
       <c r="E3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>17</v>
+      <c r="F3" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1012,8 +1012,8 @@
       <c r="E4" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>17</v>
+      <c r="F4" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1033,7 +1033,7 @@
         <v>42</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1052,8 +1052,8 @@
       <c r="E6" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>17</v>
+      <c r="F6" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1072,8 +1072,8 @@
       <c r="E7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>17</v>
+      <c r="F7" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1093,7 +1093,7 @@
         <v>42</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="19.5" customHeight="1">

--- a/testcase/TestCase.xlsx
+++ b/testcase/TestCase.xlsx
@@ -923,7 +923,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>

--- a/testcase/TestCase.xlsx
+++ b/testcase/TestCase.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26101"/>
   <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaoM/Documents/workspace/AppiumXM/testcase/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4785" yWindow="3315" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13540"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -12,6 +17,7 @@
     <sheet name="HybrisAPP" sheetId="14" r:id="rId3"/>
     <sheet name="WAP" sheetId="15" r:id="rId4"/>
     <sheet name="APP-Resource" sheetId="16" r:id="rId5"/>
+    <sheet name="iOSApp" sheetId="17" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="119">
   <si>
     <t>用例ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -408,12 +414,293 @@
     <t>测试普通HybrisAPP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>APP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iOSApp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击QQ邮箱</t>
+    <rPh sb="0" eb="1">
+      <t>dian'ji</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>you'xiang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ByName::支持QQ号/手机号/邮箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入帐号</t>
+    <rPh sb="0" eb="1">
+      <t>shu'ru</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhang'h</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入密码</t>
+    <rPh sb="0" eb="1">
+      <t>shu'ru</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mi'ma</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ByName::QQ密码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ByName::登录</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击登录按钮</t>
+    <rPh sb="0" eb="1">
+      <t>dian'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>deng'lu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>an'niu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击完成按钮</t>
+    <rPh sb="0" eb="1">
+      <t>dian'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wan'c</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>an'niu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ByName::完成</t>
+    <rPh sb="8" eb="9">
+      <t>wan'c</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ByName::选项菜单</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击菜单</t>
+    <rPh sb="0" eb="1">
+      <t>dian'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cai'dan</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steps07</t>
+  </si>
+  <si>
+    <t>点击设置</t>
+    <rPh sb="0" eb="1">
+      <t>dian'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>she'zhi</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steps08</t>
+  </si>
+  <si>
+    <t>点击帐号设置</t>
+    <rPh sb="0" eb="1">
+      <t>dian'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhang'hao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>she'zhi</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ByName::设置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ByName::1025165571@qq.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ByXpath:://*[1]//*[1]//*[2]//*[1]//*[2]//*[1]//*[1]//*[1]//*[1]//*[2]//*[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ByXpath:://*[1]//*[1]//*[2]//*[1]//*[2]//*[1]//*[1]//*[1]//*[1]//*[14]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steps09</t>
+  </si>
+  <si>
+    <t>点击删除</t>
+    <rPh sb="0" eb="1">
+      <t>dian'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shan'c</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steps10</t>
+  </si>
+  <si>
+    <t>Sleep</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待10秒</t>
+    <rPh sb="0" eb="1">
+      <t>deng'dai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>miao</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待20秒</t>
+    <rPh sb="0" eb="1">
+      <t>deng'dai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>miao</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steps12</t>
+  </si>
+  <si>
+    <t>kj080982</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steps01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steps13</t>
+  </si>
+  <si>
+    <t>Steps14</t>
+  </si>
+  <si>
+    <t>坐标点击（执行外部脚本）</t>
+    <rPh sb="0" eb="1">
+      <t>zuo'biao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dian'ji</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhi'xing</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wai'bu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jiao'ben</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>iosDemo2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待3秒</t>
+    <rPh sb="0" eb="1">
+      <t>deng'dai</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>miao</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steps15</t>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="7" type="halfwidthKatakana"/>
+  </si>
+  <si>
+    <t>NATIVE_APP</t>
+    <phoneticPr fontId="8" type="halfwidthKatakana"/>
+  </si>
+  <si>
+    <t>Steps11</t>
+    <phoneticPr fontId="7" type="halfwidthKatakana"/>
+  </si>
+  <si>
+    <t>滑动（执行外部脚本）</t>
+    <rPh sb="0" eb="1">
+      <t>hua'dong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhi'xing</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wai'bu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jiao'ben</t>
+    </rPh>
+    <phoneticPr fontId="7" type="halfwidthKatakana"/>
+  </si>
+  <si>
+    <t>Script</t>
+    <phoneticPr fontId="7" type="halfwidthKatakana"/>
+  </si>
+  <si>
+    <t>iosDemo</t>
+    <phoneticPr fontId="7" type="halfwidthKatakana"/>
+  </si>
+  <si>
+    <t>测试iOS App（QQ邮箱）</t>
+    <rPh sb="0" eb="1">
+      <t>ce's</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>you'x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -462,6 +749,21 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -539,7 +841,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -616,6 +918,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -919,24 +1233,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.625" customWidth="1"/>
-    <col min="2" max="2" width="10.375" customWidth="1"/>
-    <col min="3" max="3" width="20.375" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="17.875" customWidth="1"/>
-    <col min="6" max="6" width="12.625" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -956,7 +1268,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -976,7 +1288,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -984,10 +1296,10 @@
         <v>28</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>42</v>
@@ -996,130 +1308,70 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>28</v>
+      <c r="B4" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>63</v>
+      <c r="B5" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>28</v>
+      <c r="B6" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>77</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>74</v>
+      <c r="F6" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F6">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1129,27 +1381,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="10.375" customWidth="1"/>
-    <col min="4" max="4" width="18.125" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
-    <col min="6" max="6" width="42.375" customWidth="1"/>
-    <col min="7" max="7" width="8.125" customWidth="1"/>
-    <col min="8" max="8" width="14.125" customWidth="1"/>
-    <col min="9" max="9" width="27.125" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" customWidth="1"/>
+    <col min="6" max="6" width="42.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" customWidth="1"/>
+    <col min="9" max="9" width="27.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -1184,7 +1436,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -1213,7 +1465,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" ht="27">
+    <row r="3" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -1242,7 +1494,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -1267,7 +1519,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -1292,7 +1544,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -1336,27 +1588,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="10.375" customWidth="1"/>
-    <col min="4" max="4" width="18.125" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
-    <col min="6" max="6" width="42.375" customWidth="1"/>
-    <col min="7" max="7" width="8.125" customWidth="1"/>
-    <col min="8" max="8" width="14.125" customWidth="1"/>
-    <col min="9" max="9" width="27.125" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" customWidth="1"/>
+    <col min="6" max="6" width="42.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" customWidth="1"/>
+    <col min="9" max="9" width="27.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -1391,7 +1643,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -1420,7 +1672,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" ht="27">
+    <row r="3" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -1449,7 +1701,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -1474,7 +1726,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -1499,7 +1751,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -1530,7 +1782,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -1559,7 +1811,7 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1605,27 +1857,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="10.375" customWidth="1"/>
-    <col min="4" max="4" width="18.125" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
-    <col min="6" max="6" width="42.375" customWidth="1"/>
-    <col min="7" max="7" width="8.125" customWidth="1"/>
-    <col min="8" max="8" width="14.125" customWidth="1"/>
-    <col min="9" max="9" width="27.125" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" customWidth="1"/>
+    <col min="6" max="6" width="42.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" customWidth="1"/>
+    <col min="9" max="9" width="27.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1660,7 +1912,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="16" customFormat="1">
+    <row r="2" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -1685,7 +1937,7 @@
       <c r="J2" s="17"/>
       <c r="K2" s="17"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -1716,7 +1968,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -1745,7 +1997,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -1770,7 +2022,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -1817,27 +2069,27 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
-    <col min="2" max="2" width="17.625" customWidth="1"/>
-    <col min="3" max="3" width="10.375" customWidth="1"/>
-    <col min="4" max="4" width="18.625" customWidth="1"/>
-    <col min="5" max="5" width="14.625" customWidth="1"/>
-    <col min="6" max="6" width="42.375" customWidth="1"/>
-    <col min="7" max="7" width="8.125" customWidth="1"/>
-    <col min="8" max="8" width="14.125" customWidth="1"/>
-    <col min="9" max="9" width="27.125" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="42.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" customWidth="1"/>
+    <col min="9" max="9" width="27.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1872,7 +2124,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -1901,7 +2153,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" ht="27">
+    <row r="3" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -1930,7 +2182,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -1955,7 +2207,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -1998,4 +2250,496 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" customWidth="1"/>
+    <col min="6" max="6" width="42.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" customWidth="1"/>
+    <col min="9" max="9" width="27.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="2">
+        <v>10</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" s="2">
+        <v>10</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1025165571</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="2">
+        <v>10</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" s="2">
+        <v>10</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="3">
+        <v>20</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" s="2">
+        <v>10</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" s="8">
+        <v>10</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" s="8">
+        <v>10</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" s="8">
+        <v>10</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" s="3">
+        <v>10</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" s="8">
+        <v>10</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14" s="3">
+        <v>3</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G15" s="8">
+        <v>10</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" s="3">
+        <v>10</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="halfwidthKatakana"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H5 H7:H10 H13 H15">
+      <formula1>"sendKeys,click,verity,longPress,swipe,dragAndDrop,select"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A16">
+      <formula1>"YES,NO"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B16">
+      <formula1>"NATIVE_APP,WEBVIEW"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testcase/TestCase.xlsx
+++ b/testcase/TestCase.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13540"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13540" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -1236,7 +1236,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1592,7 +1594,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2256,8 +2258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>

--- a/testcase/TestCase.xlsx
+++ b/testcase/TestCase.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26101"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaoM/Documents/workspace/AppiumXM/testcase/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13540" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -18,6 +13,7 @@
     <sheet name="WAP" sheetId="15" r:id="rId4"/>
     <sheet name="APP-Resource" sheetId="16" r:id="rId5"/>
     <sheet name="iOSApp" sheetId="17" r:id="rId6"/>
+    <sheet name="iOSApp(main)" sheetId="18" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="122">
   <si>
     <t>用例ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -695,12 +691,30 @@
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>登录QQ邮箱（模块）</t>
+    <rPh sb="0" eb="1">
+      <t>dian'ji</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>you'xiang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PageObject.QQEmailLogin</t>
+    <phoneticPr fontId="7" type="halfwidthKatakana"/>
+  </si>
+  <si>
+    <t>PageObject</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -764,6 +778,12 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1233,24 +1253,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" width="9.625" customWidth="1"/>
+    <col min="2" max="2" width="10.375" customWidth="1"/>
+    <col min="3" max="3" width="20.375" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="17.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.875" customWidth="1"/>
+    <col min="6" max="6" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1270,7 +1290,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1290,7 +1310,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1310,7 +1330,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1330,7 +1350,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="19.5" customHeight="1">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1350,7 +1370,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1383,27 +1403,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" customWidth="1"/>
-    <col min="6" max="6" width="42.33203125" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" customWidth="1"/>
-    <col min="8" max="8" width="14.1640625" customWidth="1"/>
-    <col min="9" max="9" width="27.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="18.125" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="6" max="6" width="42.375" customWidth="1"/>
+    <col min="7" max="7" width="8.125" customWidth="1"/>
+    <col min="8" max="8" width="14.125" customWidth="1"/>
+    <col min="9" max="9" width="27.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -1438,7 +1458,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -1467,7 +1487,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="27">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -1496,7 +1516,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -1521,7 +1541,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -1546,7 +1566,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -1590,27 +1610,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" customWidth="1"/>
-    <col min="6" max="6" width="42.33203125" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" customWidth="1"/>
-    <col min="8" max="8" width="14.1640625" customWidth="1"/>
-    <col min="9" max="9" width="27.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="18.125" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="6" max="6" width="42.375" customWidth="1"/>
+    <col min="7" max="7" width="8.125" customWidth="1"/>
+    <col min="8" max="8" width="14.125" customWidth="1"/>
+    <col min="9" max="9" width="27.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -1645,7 +1665,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -1674,7 +1694,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="27">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -1703,7 +1723,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -1728,7 +1748,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -1753,7 +1773,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -1784,7 +1804,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -1813,7 +1833,7 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1859,27 +1879,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" customWidth="1"/>
-    <col min="6" max="6" width="42.33203125" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" customWidth="1"/>
-    <col min="8" max="8" width="14.1640625" customWidth="1"/>
-    <col min="9" max="9" width="27.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="18.125" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="6" max="6" width="42.375" customWidth="1"/>
+    <col min="7" max="7" width="8.125" customWidth="1"/>
+    <col min="8" max="8" width="14.125" customWidth="1"/>
+    <col min="9" max="9" width="27.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1914,7 +1934,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" s="16" customFormat="1">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -1939,7 +1959,7 @@
       <c r="J2" s="17"/>
       <c r="K2" s="17"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -1970,7 +1990,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -1999,7 +2019,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -2024,7 +2044,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -2071,27 +2091,27 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1"/>
-    <col min="6" max="6" width="42.33203125" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" customWidth="1"/>
-    <col min="8" max="8" width="14.1640625" customWidth="1"/>
-    <col min="9" max="9" width="27.1640625" customWidth="1"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="17.625" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="18.625" customWidth="1"/>
+    <col min="5" max="5" width="14.625" customWidth="1"/>
+    <col min="6" max="6" width="42.375" customWidth="1"/>
+    <col min="7" max="7" width="8.125" customWidth="1"/>
+    <col min="8" max="8" width="14.125" customWidth="1"/>
+    <col min="9" max="9" width="27.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -2126,7 +2146,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -2155,7 +2175,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="27">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -2184,7 +2204,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -2209,7 +2229,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -2255,27 +2275,27 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" customWidth="1"/>
-    <col min="6" max="6" width="42.33203125" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" customWidth="1"/>
-    <col min="8" max="8" width="14.1640625" customWidth="1"/>
-    <col min="9" max="9" width="27.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="21.375" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="6" max="6" width="42.375" customWidth="1"/>
+    <col min="7" max="7" width="8.125" customWidth="1"/>
+    <col min="8" max="8" width="14.125" customWidth="1"/>
+    <col min="9" max="9" width="27.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -2310,36 +2330,30 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="B2" s="7"/>
       <c r="C2" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>78</v>
+      <c r="D2" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="G2" s="2">
-        <v>10</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="3"/>
       <c r="I2" s="5"/>
       <c r="J2" s="2"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -2347,30 +2361,28 @@
         <v>31</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>73</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G3" s="2">
         <v>10</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="3">
-        <v>1025165571</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -2378,30 +2390,28 @@
         <v>31</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="F4" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" s="8">
         <v>10</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>104</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -2409,18 +2419,18 @@
         <v>31</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="F5" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="8">
         <v>10</v>
       </c>
       <c r="H5" s="3" t="s">
@@ -2430,7 +2440,387 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6" s="8">
+        <v>10</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="3">
+        <v>10</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" ht="27">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" s="8">
+        <v>10</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="3">
+        <v>3</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" s="8">
+        <v>10</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="3">
+        <v>10</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="halfwidthKatakana"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H11 H9 H2:H6">
+      <formula1>"sendKeys,click,verity,longPress,swipe,dragAndDrop,select"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A12">
+      <formula1>"YES,NO"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B12">
+      <formula1>"NATIVE_APP,WEBVIEW"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="21.375" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="6" max="6" width="42.375" customWidth="1"/>
+    <col min="7" max="7" width="8.125" customWidth="1"/>
+    <col min="8" max="8" width="14.125" customWidth="1"/>
+    <col min="9" max="9" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="27">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="2">
+        <v>10</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" s="2">
+        <v>10</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1025165571</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="2">
+        <v>10</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" s="2">
+        <v>10</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -2455,7 +2845,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -2484,7 +2874,7 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -2513,7 +2903,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -2542,7 +2932,7 @@
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
@@ -2571,7 +2961,7 @@
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -2596,7 +2986,7 @@
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
         <v>112</v>
       </c>
@@ -2621,7 +3011,7 @@
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="27">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -2650,7 +3040,7 @@
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -2675,7 +3065,7 @@
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
@@ -2704,7 +3094,7 @@
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
@@ -2730,16 +3120,16 @@
       <c r="K16" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="halfwidthKatakana"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H5 H7:H10 H13 H15">
-      <formula1>"sendKeys,click,verity,longPress,swipe,dragAndDrop,select"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B16">
+      <formula1>"NATIVE_APP,WEBVIEW"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A16">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B16">
-      <formula1>"NATIVE_APP,WEBVIEW"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H15 H7:H10 H13 H2:H5">
+      <formula1>"sendKeys,click,verity,longPress,swipe,dragAndDrop,select"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testcase/TestCase.xlsx
+++ b/testcase/TestCase.xlsx
@@ -702,12 +702,12 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>PageObject.QQEmailLogin</t>
-    <phoneticPr fontId="7" type="halfwidthKatakana"/>
-  </si>
-  <si>
     <t>PageObject</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>PageObject::QQEmailLogin</t>
+    <phoneticPr fontId="7" type="halfwidthKatakana"/>
   </si>
 </sst>
 </file>
@@ -2279,7 +2279,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -2342,10 +2342,10 @@
         <v>119</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>121</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>120</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="3"/>

--- a/testcase/TestCase.xlsx
+++ b/testcase/TestCase.xlsx
@@ -13,7 +13,6 @@
     <sheet name="WAP" sheetId="15" r:id="rId4"/>
     <sheet name="APP-Resource" sheetId="16" r:id="rId5"/>
     <sheet name="iOSApp" sheetId="17" r:id="rId6"/>
-    <sheet name="iOSApp(main)" sheetId="18" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="108">
   <si>
     <t>用例ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -419,61 +418,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>点击QQ邮箱</t>
-    <rPh sb="0" eb="1">
-      <t>dian'ji</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>you'xiang</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ByName::支持QQ号/手机号/邮箱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入帐号</t>
-    <rPh sb="0" eb="1">
-      <t>shu'ru</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhang'h</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入密码</t>
-    <rPh sb="0" eb="1">
-      <t>shu'ru</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>mi'ma</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ByName::QQ密码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ByName::登录</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击登录按钮</t>
-    <rPh sb="0" eb="1">
-      <t>dian'ji</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>deng'lu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>an'niu</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>点击完成按钮</t>
     <rPh sb="0" eb="1">
       <t>dian'ji</t>
@@ -545,10 +489,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ByXpath:://*[1]//*[1]//*[2]//*[1]//*[2]//*[1]//*[1]//*[1]//*[1]//*[2]//*[1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ByXpath:://*[1]//*[1]//*[2]//*[1]//*[2]//*[1]//*[1]//*[1]//*[1]//*[14]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -583,31 +523,8 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>等待20秒</t>
-    <rPh sb="0" eb="1">
-      <t>deng'dai</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>miao</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Steps12</t>
-  </si>
-  <si>
-    <t>kj080982</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Steps01</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Steps13</t>
-  </si>
-  <si>
-    <t>Steps14</t>
   </si>
   <si>
     <t>坐标点击（执行外部脚本）</t>
@@ -643,19 +560,12 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Steps15</t>
-  </si>
-  <si>
     <t>NO</t>
     <phoneticPr fontId="7" type="halfwidthKatakana"/>
   </si>
   <si>
     <t>NATIVE_APP</t>
     <phoneticPr fontId="8" type="halfwidthKatakana"/>
-  </si>
-  <si>
-    <t>Steps11</t>
-    <phoneticPr fontId="7" type="halfwidthKatakana"/>
   </si>
   <si>
     <t>滑动（执行外部脚本）</t>
@@ -704,6 +614,9 @@
   <si>
     <t>PageObject</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steps11</t>
   </si>
   <si>
     <t>PageObject::QQEmailLogin</t>
@@ -714,7 +627,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -778,12 +691,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -861,7 +768,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -939,9 +846,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1378,7 +1282,7 @@
         <v>76</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>77</v>
@@ -1406,7 +1310,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -2279,7 +2183,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -2287,7 +2191,7 @@
     <col min="1" max="1" width="12.125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="10.375" customWidth="1"/>
-    <col min="4" max="4" width="21.375" customWidth="1"/>
+    <col min="4" max="4" width="22.875" customWidth="1"/>
     <col min="5" max="5" width="12.125" customWidth="1"/>
     <col min="6" max="6" width="42.375" customWidth="1"/>
     <col min="7" max="7" width="8.125" customWidth="1"/>
@@ -2336,16 +2240,16 @@
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="F2" s="13" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="3"/>
@@ -2361,16 +2265,16 @@
         <v>31</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>73</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G3" s="2">
         <v>10</v>
@@ -2390,16 +2294,16 @@
         <v>31</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="27" t="s">
-        <v>87</v>
+      <c r="F4" s="26" t="s">
+        <v>80</v>
       </c>
       <c r="G4" s="8">
         <v>10</v>
@@ -2419,16 +2323,16 @@
         <v>31</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="27" t="s">
-        <v>93</v>
+      <c r="F5" s="26" t="s">
+        <v>86</v>
       </c>
       <c r="G5" s="8">
         <v>10</v>
@@ -2448,16 +2352,16 @@
         <v>31</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="28" t="s">
-        <v>94</v>
+      <c r="F6" s="27" t="s">
+        <v>87</v>
       </c>
       <c r="G6" s="8">
         <v>10</v>
@@ -2477,13 +2381,13 @@
         <v>31</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>101</v>
+        <v>27</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>93</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F7" s="3">
         <v>10</v>
@@ -2496,22 +2400,22 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>115</v>
+        <v>82</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>100</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -2527,16 +2431,16 @@
         <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="28" t="s">
-        <v>96</v>
+      <c r="F9" s="27" t="s">
+        <v>88</v>
       </c>
       <c r="G9" s="8">
         <v>10</v>
@@ -2556,13 +2460,13 @@
         <v>31</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>110</v>
+        <v>89</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>97</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F10" s="3">
         <v>3</v>
@@ -2581,23 +2485,19 @@
         <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>108</v>
+        <v>91</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>95</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="G11" s="8">
-        <v>10</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="3"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -2610,13 +2510,13 @@
         <v>31</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>101</v>
+        <v>106</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>93</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F12" s="3">
         <v>10</v>
@@ -2630,7 +2530,7 @@
   </sheetData>
   <phoneticPr fontId="7" type="halfwidthKatakana"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H11 H9 H2:H6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H11 H2:H6 H9">
       <formula1>"sendKeys,click,verity,longPress,swipe,dragAndDrop,select"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A12">
@@ -2642,496 +2542,4 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K16"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="10.375" customWidth="1"/>
-    <col min="4" max="4" width="21.375" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
-    <col min="6" max="6" width="42.375" customWidth="1"/>
-    <col min="7" max="7" width="8.125" customWidth="1"/>
-    <col min="8" max="8" width="14.125" customWidth="1"/>
-    <col min="9" max="9" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="27">
-      <c r="A2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="G2" s="2">
-        <v>10</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="5"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G3" s="2">
-        <v>10</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="3">
-        <v>1025165571</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G4" s="2">
-        <v>10</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G5" s="2">
-        <v>10</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="F6" s="3">
-        <v>20</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="G7" s="2">
-        <v>10</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="G8" s="8">
-        <v>10</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="G9" s="8">
-        <v>10</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="G10" s="8">
-        <v>10</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="F11" s="3">
-        <v>10</v>
-      </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-    </row>
-    <row r="13" spans="1:11" ht="27">
-      <c r="A13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="G13" s="8">
-        <v>10</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="F14" s="3">
-        <v>3</v>
-      </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="G15" s="8">
-        <v>10</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="F16" s="3">
-        <v>10</v>
-      </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B16">
-      <formula1>"NATIVE_APP,WEBVIEW"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A16">
-      <formula1>"YES,NO"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H15 H7:H10 H13 H2:H5">
-      <formula1>"sendKeys,click,verity,longPress,swipe,dragAndDrop,select"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/testcase/TestCase.xlsx
+++ b/testcase/TestCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="110">
   <si>
     <t>用例ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -438,10 +438,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ByName::选项菜单</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>点击菜单</t>
     <rPh sb="0" eb="1">
       <t>dian'ji</t>
@@ -621,6 +617,51 @@
   <si>
     <t>PageObject::QQEmailLogin</t>
     <phoneticPr fontId="7" type="halfwidthKatakana"/>
+  </si>
+  <si>
+    <r>
+      <t>文本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>::</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>iaoM</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库::Select A from B Where C = "123"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ByName::选项菜单</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -768,7 +809,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -855,6 +896,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1160,8 +1204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -1210,7 +1254,7 @@
       <c r="E2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="8" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1230,7 +1274,7 @@
       <c r="E3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="8" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1271,7 +1315,7 @@
         <v>42</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1282,7 +1326,7 @@
         <v>76</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>77</v>
@@ -1291,7 +1335,7 @@
         <v>42</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1515,10 +1559,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -1703,7 +1747,7 @@
         <v>14</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
@@ -1761,6 +1805,11 @@
       <c r="I8" s="5"/>
       <c r="J8" s="2"/>
       <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" ht="27">
+      <c r="I9" s="29" t="s">
+        <v>108</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2182,8 +2231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -2195,8 +2244,9 @@
     <col min="5" max="5" width="12.125" customWidth="1"/>
     <col min="6" max="6" width="42.375" customWidth="1"/>
     <col min="7" max="7" width="8.125" customWidth="1"/>
-    <col min="8" max="8" width="14.125" customWidth="1"/>
-    <col min="9" max="9" width="27.125" customWidth="1"/>
+    <col min="8" max="8" width="8.75" customWidth="1"/>
+    <col min="9" max="9" width="15.375" customWidth="1"/>
+    <col min="10" max="10" width="7.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -2240,16 +2290,16 @@
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="F2" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="3"/>
@@ -2297,13 +2347,13 @@
         <v>24</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>73</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="G4" s="8">
         <v>10</v>
@@ -2326,13 +2376,13 @@
         <v>25</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>73</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G5" s="8">
         <v>10</v>
@@ -2355,13 +2405,13 @@
         <v>26</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>73</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G6" s="8">
         <v>10</v>
@@ -2384,10 +2434,10 @@
         <v>27</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F7" s="3">
         <v>10</v>
@@ -2400,22 +2450,22 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="C8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8" s="28" t="s">
+      <c r="E8" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>102</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -2431,16 +2481,16 @@
         <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>73</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G9" s="8">
         <v>10</v>
@@ -2460,13 +2510,13 @@
         <v>31</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F10" s="3">
         <v>3</v>
@@ -2485,16 +2535,16 @@
         <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="3"/>
@@ -2510,13 +2560,13 @@
         <v>31</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F12" s="3">
         <v>10</v>

--- a/testcase/TestCase.xlsx
+++ b/testcase/TestCase.xlsx
@@ -1205,7 +1205,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -1255,7 +1255,7 @@
         <v>42</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1315,7 +1315,7 @@
         <v>42</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:6">

--- a/testcase/TestCase.xlsx
+++ b/testcase/TestCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="WAP" sheetId="15" r:id="rId4"/>
     <sheet name="APP-Resource" sheetId="16" r:id="rId5"/>
     <sheet name="iOSApp" sheetId="17" r:id="rId6"/>
+    <sheet name="testPage" sheetId="18" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="118">
   <si>
     <t>用例ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -414,10 +415,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>iOSApp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>点击完成按钮</t>
     <rPh sb="0" eb="1">
       <t>dian'ji</t>
@@ -613,10 +610,6 @@
   </si>
   <si>
     <t>Steps11</t>
-  </si>
-  <si>
-    <t>PageObject::QQEmailLogin</t>
-    <phoneticPr fontId="7" type="halfwidthKatakana"/>
   </si>
   <si>
     <r>
@@ -663,12 +656,64 @@
     <t>ByName::选项菜单</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>PageObject::QQEmailLogin("1025165571",,"kj080982",,"123456")</t>
+    <phoneticPr fontId="7" type="halfwidthKatakana"/>
+  </si>
+  <si>
+    <t>登录163邮箱（模块）</t>
+    <rPh sb="0" eb="1">
+      <t>dian'ji</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>you'xiang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>testPage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PageObject::163EmailLogin("maomingtest@163.com","kj080982")</t>
+    <phoneticPr fontId="7" type="halfwidthKatakana"/>
+  </si>
+  <si>
+    <t>模块测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iOSApp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steps02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录163邮箱2（模块）</t>
+    <rPh sb="0" eb="1">
+      <t>dian'ji</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>you'xiang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PageObject::163EmailLogin("maomingtest2@163.com","kj080982")</t>
+    <phoneticPr fontId="7" type="halfwidthKatakana"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -732,6 +777,12 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -905,8 +956,36 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1202,10 +1281,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -1255,7 +1334,7 @@
         <v>42</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1326,22 +1405,42 @@
         <v>76</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>77</v>
+        <v>101</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>42</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F7">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1747,7 +1846,7 @@
         <v>14</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
@@ -1808,7 +1907,7 @@
     </row>
     <row r="9" spans="1:11" ht="27">
       <c r="I9" s="29" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1836,7 +1935,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G1"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -2232,7 +2331,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -2284,22 +2383,22 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" ht="27">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="F2" s="13" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="3"/>
@@ -2318,13 +2417,13 @@
         <v>23</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>73</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G3" s="2">
         <v>10</v>
@@ -2347,13 +2446,13 @@
         <v>24</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>73</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G4" s="8">
         <v>10</v>
@@ -2376,13 +2475,13 @@
         <v>25</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>73</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G5" s="8">
         <v>10</v>
@@ -2405,13 +2504,13 @@
         <v>26</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>73</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G6" s="8">
         <v>10</v>
@@ -2434,10 +2533,10 @@
         <v>27</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F7" s="3">
         <v>10</v>
@@ -2450,22 +2549,22 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="C8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" s="28" t="s">
+      <c r="E8" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>101</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -2481,16 +2580,16 @@
         <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>73</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G9" s="8">
         <v>10</v>
@@ -2510,13 +2609,13 @@
         <v>31</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F10" s="3">
         <v>3</v>
@@ -2535,16 +2634,16 @@
         <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="3"/>
@@ -2560,13 +2659,13 @@
         <v>31</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F12" s="3">
         <v>10</v>
@@ -2580,7 +2679,7 @@
   </sheetData>
   <phoneticPr fontId="7" type="halfwidthKatakana"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H11 H2:H6 H9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H11 H9 H2:H6">
       <formula1>"sendKeys,click,verity,longPress,swipe,dragAndDrop,select"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A12">
@@ -2592,4 +2691,124 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="22.875" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="6" max="6" width="42.375" customWidth="1"/>
+    <col min="7" max="7" width="8.125" customWidth="1"/>
+    <col min="8" max="8" width="8.75" customWidth="1"/>
+    <col min="9" max="9" width="15.375" customWidth="1"/>
+    <col min="10" max="10" width="7.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="27">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="1:11" ht="27">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3">
+      <formula1>"NATIVE_APP,WEBVIEW"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3">
+      <formula1>"YES,NO"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H3">
+      <formula1>"sendKeys,click,verity,longPress,swipe,dragAndDrop,select"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testcase/TestCase.xlsx
+++ b/testcase/TestCase.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28209"/>
   <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaom/Desktop/OSX/xiaoMWork/workspace/AppiumXM/testcase/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="27320" windowHeight="13800" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -17,6 +22,9 @@
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -355,10 +363,6 @@
   </si>
   <si>
     <t>Script</t>
-  </si>
-  <si>
-    <t>Demo</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>执行外部脚本</t>
@@ -630,7 +634,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -708,12 +711,25 @@
     <t>PageObject::163EmailLogin("maomingtest2@163.com","kj080982")</t>
     <phoneticPr fontId="7" type="halfwidthKatakana"/>
   </si>
+  <si>
+    <t>Demo::参数1,参数2,参数3</t>
+    <rPh sb="6" eb="7">
+      <t>can's</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>can's</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>can's</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1280,24 +1296,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.625" customWidth="1"/>
-    <col min="2" max="2" width="10.375" customWidth="1"/>
-    <col min="3" max="3" width="20.375" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="17.875" customWidth="1"/>
-    <col min="6" max="6" width="12.625" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1317,7 +1333,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1334,10 +1350,10 @@
         <v>42</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1345,7 +1361,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>44</v>
@@ -1354,10 +1370,10 @@
         <v>42</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1374,10 +1390,10 @@
         <v>42</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="19.5" customHeight="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1394,41 +1410,41 @@
         <v>42</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>42</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>42</v>
@@ -1450,27 +1466,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="10.375" customWidth="1"/>
-    <col min="4" max="4" width="18.125" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
-    <col min="6" max="6" width="42.375" customWidth="1"/>
-    <col min="7" max="7" width="8.125" customWidth="1"/>
-    <col min="8" max="8" width="14.125" customWidth="1"/>
-    <col min="9" max="9" width="27.125" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" customWidth="1"/>
+    <col min="6" max="6" width="42.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" customWidth="1"/>
+    <col min="9" max="9" width="27.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -1490,7 +1506,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>4</v>
@@ -1505,7 +1521,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -1519,10 +1535,10 @@
         <v>35</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G2" s="2">
         <v>10</v>
@@ -1534,7 +1550,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" ht="27">
+    <row r="3" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -1563,7 +1579,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -1588,7 +1604,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -1602,7 +1618,7 @@
         <v>43</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F5" s="3">
         <v>5</v>
@@ -1613,7 +1629,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -1624,13 +1640,13 @@
         <v>26</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>66</v>
+        <v>117</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="3"/>
@@ -1657,27 +1673,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="10.375" customWidth="1"/>
-    <col min="4" max="4" width="18.125" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
-    <col min="6" max="6" width="42.375" customWidth="1"/>
-    <col min="7" max="7" width="8.125" customWidth="1"/>
-    <col min="8" max="8" width="14.125" customWidth="1"/>
-    <col min="9" max="9" width="27.125" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" customWidth="1"/>
+    <col min="6" max="6" width="42.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" customWidth="1"/>
+    <col min="9" max="9" width="27.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -1694,10 +1710,10 @@
         <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>4</v>
@@ -1712,7 +1728,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -1741,7 +1757,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" ht="27">
+    <row r="3" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -1770,7 +1786,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -1795,7 +1811,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -1820,7 +1836,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -1846,12 +1862,12 @@
         <v>14</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -1880,7 +1896,7 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1905,9 +1921,9 @@
       <c r="J8" s="2"/>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:11" ht="27">
+    <row r="9" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="I9" s="29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1931,27 +1947,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="10.375" customWidth="1"/>
-    <col min="4" max="4" width="18.125" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
-    <col min="6" max="6" width="42.375" customWidth="1"/>
-    <col min="7" max="7" width="8.125" customWidth="1"/>
-    <col min="8" max="8" width="14.125" customWidth="1"/>
-    <col min="9" max="9" width="27.125" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" customWidth="1"/>
+    <col min="6" max="6" width="42.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" customWidth="1"/>
+    <col min="9" max="9" width="27.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1968,10 +1984,10 @@
         <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>4</v>
@@ -1986,7 +2002,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="16" customFormat="1">
+    <row r="2" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -2011,7 +2027,7 @@
       <c r="J2" s="17"/>
       <c r="K2" s="17"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -2042,7 +2058,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -2071,7 +2087,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -2096,7 +2112,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -2143,27 +2159,27 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
-    <col min="2" max="2" width="17.625" customWidth="1"/>
-    <col min="3" max="3" width="10.375" customWidth="1"/>
-    <col min="4" max="4" width="18.625" customWidth="1"/>
-    <col min="5" max="5" width="14.625" customWidth="1"/>
-    <col min="6" max="6" width="42.375" customWidth="1"/>
-    <col min="7" max="7" width="8.125" customWidth="1"/>
-    <col min="8" max="8" width="14.125" customWidth="1"/>
-    <col min="9" max="9" width="27.125" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="42.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" customWidth="1"/>
+    <col min="9" max="9" width="27.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -2180,10 +2196,10 @@
         <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>4</v>
@@ -2198,7 +2214,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -2227,7 +2243,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" ht="27">
+    <row r="3" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -2256,7 +2272,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -2281,7 +2297,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -2327,28 +2343,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="140" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="10.375" customWidth="1"/>
-    <col min="4" max="4" width="22.875" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
-    <col min="6" max="6" width="42.375" customWidth="1"/>
-    <col min="7" max="7" width="8.125" customWidth="1"/>
-    <col min="8" max="8" width="8.75" customWidth="1"/>
-    <col min="9" max="9" width="15.375" customWidth="1"/>
-    <col min="10" max="10" width="7.875" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.83203125" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" customWidth="1"/>
+    <col min="6" max="6" width="42.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" customWidth="1"/>
+    <col min="10" max="10" width="7.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -2368,7 +2384,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>4</v>
@@ -2383,22 +2399,22 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="27">
+    <row r="2" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="F2" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="3"/>
@@ -2406,7 +2422,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -2417,13 +2433,13 @@
         <v>23</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="G3" s="2">
         <v>10</v>
@@ -2435,7 +2451,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -2446,13 +2462,13 @@
         <v>24</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G4" s="8">
         <v>10</v>
@@ -2464,7 +2480,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -2475,13 +2491,13 @@
         <v>25</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G5" s="8">
         <v>10</v>
@@ -2493,7 +2509,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -2504,13 +2520,13 @@
         <v>26</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G6" s="8">
         <v>10</v>
@@ -2522,7 +2538,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -2533,10 +2549,10 @@
         <v>27</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F7" s="3">
         <v>10</v>
@@ -2547,24 +2563,24 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="C8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" s="28" t="s">
+      <c r="E8" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -2572,7 +2588,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:11" ht="27">
+    <row r="9" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -2580,16 +2596,16 @@
         <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G9" s="8">
         <v>10</v>
@@ -2601,7 +2617,7 @@
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
@@ -2609,13 +2625,13 @@
         <v>31</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F10" s="3">
         <v>3</v>
@@ -2626,7 +2642,7 @@
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -2634,16 +2650,16 @@
         <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="3"/>
@@ -2651,7 +2667,7 @@
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
@@ -2659,13 +2675,13 @@
         <v>31</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F12" s="3">
         <v>10</v>
@@ -2694,28 +2710,28 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="10.375" customWidth="1"/>
-    <col min="4" max="4" width="22.875" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
-    <col min="6" max="6" width="42.375" customWidth="1"/>
-    <col min="7" max="7" width="8.125" customWidth="1"/>
-    <col min="8" max="8" width="8.75" customWidth="1"/>
-    <col min="9" max="9" width="15.375" customWidth="1"/>
-    <col min="10" max="10" width="7.875" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.83203125" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" customWidth="1"/>
+    <col min="6" max="6" width="58.1640625" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" customWidth="1"/>
+    <col min="10" max="10" width="7.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -2735,7 +2751,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>4</v>
@@ -2750,7 +2766,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="27">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -2759,13 +2775,13 @@
         <v>22</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="3"/>
@@ -2773,22 +2789,22 @@
       <c r="J2" s="2"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" ht="27">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>116</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>117</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="3"/>

--- a/testcase/TestCase.xlsx
+++ b/testcase/TestCase.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaom/Desktop/OSX/xiaoMWork/workspace/AppiumXM/testcase/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="27320" windowHeight="13800" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -33,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="119">
   <si>
     <t>用例ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -724,12 +719,25 @@
     </rPh>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>Demo("参数1","参数2","参数3")</t>
+    <rPh sb="6" eb="7">
+      <t>can's</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>can's</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>can's</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1296,24 +1304,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" width="9.625" customWidth="1"/>
+    <col min="2" max="2" width="10.375" customWidth="1"/>
+    <col min="3" max="3" width="20.375" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="17.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.875" customWidth="1"/>
+    <col min="6" max="6" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1333,7 +1341,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1353,7 +1361,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1373,7 +1381,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1393,7 +1401,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="19.5" customHeight="1">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1413,7 +1421,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1433,7 +1441,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -1466,27 +1474,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" customWidth="1"/>
-    <col min="6" max="6" width="42.33203125" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" customWidth="1"/>
-    <col min="8" max="8" width="14.1640625" customWidth="1"/>
-    <col min="9" max="9" width="27.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="18.125" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="6" max="6" width="42.375" customWidth="1"/>
+    <col min="7" max="7" width="8.125" customWidth="1"/>
+    <col min="8" max="8" width="14.125" customWidth="1"/>
+    <col min="9" max="9" width="27.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -1521,7 +1529,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -1550,7 +1558,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="27">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -1579,7 +1587,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -1604,7 +1612,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -1629,7 +1637,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -1654,16 +1662,41 @@
       <c r="J6" s="2"/>
       <c r="K6" s="5"/>
     </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="5"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B7">
       <formula1>"NATIVE_APP,WEBVIEW"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A7">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H6 H2:H3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H7 H2:H3">
       <formula1>"sendKeys,click,verity,longPress,swipe,dragAndDrop,select"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1673,27 +1706,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" customWidth="1"/>
-    <col min="6" max="6" width="42.33203125" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" customWidth="1"/>
-    <col min="8" max="8" width="14.1640625" customWidth="1"/>
-    <col min="9" max="9" width="27.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="18.125" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="6" max="6" width="42.375" customWidth="1"/>
+    <col min="7" max="7" width="8.125" customWidth="1"/>
+    <col min="8" max="8" width="14.125" customWidth="1"/>
+    <col min="9" max="9" width="27.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -1728,7 +1761,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -1757,7 +1790,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="27">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -1786,7 +1819,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -1811,7 +1844,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -1836,7 +1869,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -1867,7 +1900,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -1896,7 +1929,7 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1921,7 +1954,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" ht="27">
       <c r="I9" s="29" t="s">
         <v>105</v>
       </c>
@@ -1947,27 +1980,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" customWidth="1"/>
-    <col min="6" max="6" width="42.33203125" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" customWidth="1"/>
-    <col min="8" max="8" width="14.1640625" customWidth="1"/>
-    <col min="9" max="9" width="27.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="18.125" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="6" max="6" width="42.375" customWidth="1"/>
+    <col min="7" max="7" width="8.125" customWidth="1"/>
+    <col min="8" max="8" width="14.125" customWidth="1"/>
+    <col min="9" max="9" width="27.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -2002,7 +2035,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" s="16" customFormat="1">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -2027,7 +2060,7 @@
       <c r="J2" s="17"/>
       <c r="K2" s="17"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -2058,7 +2091,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -2087,7 +2120,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -2112,7 +2145,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -2159,27 +2192,27 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1"/>
-    <col min="6" max="6" width="42.33203125" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" customWidth="1"/>
-    <col min="8" max="8" width="14.1640625" customWidth="1"/>
-    <col min="9" max="9" width="27.1640625" customWidth="1"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="17.625" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="18.625" customWidth="1"/>
+    <col min="5" max="5" width="14.625" customWidth="1"/>
+    <col min="6" max="6" width="42.375" customWidth="1"/>
+    <col min="7" max="7" width="8.125" customWidth="1"/>
+    <col min="8" max="8" width="14.125" customWidth="1"/>
+    <col min="9" max="9" width="27.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -2214,7 +2247,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -2243,7 +2276,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="27">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -2272,7 +2305,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -2297,7 +2330,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -2343,28 +2376,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="4" width="22.83203125" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" customWidth="1"/>
-    <col min="6" max="6" width="42.33203125" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" customWidth="1"/>
-    <col min="10" max="10" width="7.83203125" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="22.875" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="6" max="6" width="42.375" customWidth="1"/>
+    <col min="7" max="7" width="8.125" customWidth="1"/>
+    <col min="8" max="8" width="8.625" customWidth="1"/>
+    <col min="9" max="9" width="15.375" customWidth="1"/>
+    <col min="10" max="10" width="7.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -2399,7 +2432,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="27">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -2422,7 +2455,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -2451,7 +2484,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -2480,7 +2513,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -2509,7 +2542,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -2538,7 +2571,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -2563,7 +2596,7 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
         <v>95</v>
       </c>
@@ -2588,7 +2621,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" ht="27">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -2617,7 +2650,7 @@
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
@@ -2642,7 +2675,7 @@
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -2667,7 +2700,7 @@
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
@@ -2710,28 +2743,28 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="4" width="22.83203125" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" customWidth="1"/>
-    <col min="6" max="6" width="58.1640625" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" customWidth="1"/>
-    <col min="10" max="10" width="7.83203125" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="22.875" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="6" max="6" width="58.125" customWidth="1"/>
+    <col min="7" max="7" width="8.125" customWidth="1"/>
+    <col min="8" max="8" width="8.625" customWidth="1"/>
+    <col min="9" max="9" width="15.375" customWidth="1"/>
+    <col min="10" max="10" width="7.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -2766,7 +2799,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="27">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -2789,7 +2822,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="27">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>

--- a/testcase/TestCase.xlsx
+++ b/testcase/TestCase.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28209"/>
   <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaom/Desktop/OSX/xiaoMWork/workspace/AppiumXM/testcase/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="27320" windowHeight="13920"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -655,10 +660,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>PageObject::QQEmailLogin("1025165571",,"kj080982",,"123456")</t>
-    <phoneticPr fontId="7" type="halfwidthKatakana"/>
-  </si>
-  <si>
     <t>登录163邮箱（模块）</t>
     <rPh sb="0" eb="1">
       <t>dian'ji</t>
@@ -731,13 +732,17 @@
       <t>can's</t>
     </rPh>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>PageObject::QQEmailLogin("1025165571","kj080982")</t>
+    <phoneticPr fontId="7" type="halfwidthKatakana"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1304,24 +1309,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.625" customWidth="1"/>
-    <col min="2" max="2" width="10.375" customWidth="1"/>
-    <col min="3" max="3" width="20.375" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="17.875" customWidth="1"/>
-    <col min="6" max="6" width="12.625" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1341,7 +1346,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1361,7 +1366,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1381,7 +1386,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1398,10 +1403,10 @@
         <v>42</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="19.5" customHeight="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1421,7 +1426,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1432,7 +1437,7 @@
         <v>100</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>42</v>
@@ -1441,24 +1446,24 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>42</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1474,27 +1479,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="10.375" customWidth="1"/>
-    <col min="4" max="4" width="18.125" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
-    <col min="6" max="6" width="42.375" customWidth="1"/>
-    <col min="7" max="7" width="8.125" customWidth="1"/>
-    <col min="8" max="8" width="14.125" customWidth="1"/>
-    <col min="9" max="9" width="27.125" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" customWidth="1"/>
+    <col min="6" max="6" width="42.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" customWidth="1"/>
+    <col min="9" max="9" width="27.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -1529,7 +1534,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -1558,7 +1563,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" ht="27">
+    <row r="3" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -1587,7 +1592,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -1612,7 +1617,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -1637,7 +1642,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -1654,7 +1659,7 @@
         <v>65</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="3"/>
@@ -1662,7 +1667,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -1679,7 +1684,7 @@
         <v>65</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="3"/>
@@ -1706,27 +1711,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="10.375" customWidth="1"/>
-    <col min="4" max="4" width="18.125" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
-    <col min="6" max="6" width="42.375" customWidth="1"/>
-    <col min="7" max="7" width="8.125" customWidth="1"/>
-    <col min="8" max="8" width="14.125" customWidth="1"/>
-    <col min="9" max="9" width="27.125" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" customWidth="1"/>
+    <col min="6" max="6" width="42.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" customWidth="1"/>
+    <col min="9" max="9" width="27.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -1761,7 +1766,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -1790,7 +1795,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" ht="27">
+    <row r="3" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -1819,7 +1824,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -1844,7 +1849,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -1869,7 +1874,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -1900,7 +1905,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -1929,7 +1934,7 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1954,7 +1959,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:11" ht="27">
+    <row r="9" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="I9" s="29" t="s">
         <v>105</v>
       </c>
@@ -1980,27 +1985,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="10.375" customWidth="1"/>
-    <col min="4" max="4" width="18.125" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
-    <col min="6" max="6" width="42.375" customWidth="1"/>
-    <col min="7" max="7" width="8.125" customWidth="1"/>
-    <col min="8" max="8" width="14.125" customWidth="1"/>
-    <col min="9" max="9" width="27.125" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" customWidth="1"/>
+    <col min="6" max="6" width="42.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" customWidth="1"/>
+    <col min="9" max="9" width="27.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -2035,7 +2040,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="16" customFormat="1">
+    <row r="2" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -2060,7 +2065,7 @@
       <c r="J2" s="17"/>
       <c r="K2" s="17"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -2091,7 +2096,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -2120,7 +2125,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -2145,7 +2150,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -2192,27 +2197,27 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
-    <col min="2" max="2" width="17.625" customWidth="1"/>
-    <col min="3" max="3" width="10.375" customWidth="1"/>
-    <col min="4" max="4" width="18.625" customWidth="1"/>
-    <col min="5" max="5" width="14.625" customWidth="1"/>
-    <col min="6" max="6" width="42.375" customWidth="1"/>
-    <col min="7" max="7" width="8.125" customWidth="1"/>
-    <col min="8" max="8" width="14.125" customWidth="1"/>
-    <col min="9" max="9" width="27.125" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="42.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" customWidth="1"/>
+    <col min="9" max="9" width="27.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -2247,7 +2252,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -2276,7 +2281,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" ht="27">
+    <row r="3" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -2305,7 +2310,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -2330,7 +2335,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -2376,28 +2381,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="10.375" customWidth="1"/>
-    <col min="4" max="4" width="22.875" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
-    <col min="6" max="6" width="42.375" customWidth="1"/>
-    <col min="7" max="7" width="8.125" customWidth="1"/>
-    <col min="8" max="8" width="8.625" customWidth="1"/>
-    <col min="9" max="9" width="15.375" customWidth="1"/>
-    <col min="10" max="10" width="7.875" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.83203125" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" customWidth="1"/>
+    <col min="6" max="6" width="42.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" customWidth="1"/>
+    <col min="10" max="10" width="7.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -2432,7 +2437,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="27">
+    <row r="2" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -2447,7 +2452,7 @@
         <v>102</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="3"/>
@@ -2455,7 +2460,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -2484,7 +2489,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -2513,7 +2518,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -2542,7 +2547,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -2571,7 +2576,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -2596,7 +2601,7 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>95</v>
       </c>
@@ -2621,7 +2626,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:11" ht="27">
+    <row r="9" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -2650,7 +2655,7 @@
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
@@ -2675,7 +2680,7 @@
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -2700,7 +2705,7 @@
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
@@ -2743,28 +2748,28 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="10.375" customWidth="1"/>
-    <col min="4" max="4" width="22.875" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
-    <col min="6" max="6" width="58.125" customWidth="1"/>
-    <col min="7" max="7" width="8.125" customWidth="1"/>
-    <col min="8" max="8" width="8.625" customWidth="1"/>
-    <col min="9" max="9" width="15.375" customWidth="1"/>
-    <col min="10" max="10" width="7.875" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.83203125" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" customWidth="1"/>
+    <col min="6" max="6" width="58.1640625" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" customWidth="1"/>
+    <col min="10" max="10" width="7.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -2799,7 +2804,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="27">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -2808,13 +2813,13 @@
         <v>22</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>102</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="3"/>
@@ -2822,22 +2827,22 @@
       <c r="J2" s="2"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" ht="27">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>102</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="3"/>

--- a/testcase/TestCase.xlsx
+++ b/testcase/TestCase.xlsx
@@ -1313,7 +1313,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1403,7 +1403,7 @@
         <v>42</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1443,7 +1443,7 @@
         <v>42</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -2385,7 +2385,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>

--- a/testcase/TestCase.xlsx
+++ b/testcase/TestCase.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="27320" windowHeight="13920"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="27320" windowHeight="13900"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="120">
   <si>
     <t>用例ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -735,6 +735,10 @@
   </si>
   <si>
     <t>PageObject::QQEmailLogin("1025165571","kj080982")</t>
+    <phoneticPr fontId="7" type="halfwidthKatakana"/>
+  </si>
+  <si>
+    <t>YES</t>
     <phoneticPr fontId="7" type="halfwidthKatakana"/>
   </si>
 </sst>
@@ -1313,7 +1317,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1363,7 +1367,7 @@
         <v>42</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -1383,7 +1387,7 @@
         <v>42</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -1443,7 +1447,7 @@
         <v>42</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -2384,8 +2388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2707,7 +2711,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>119</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>31</v>

--- a/testcase/TestCase.xlsx
+++ b/testcase/TestCase.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="27320" windowHeight="13900"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13780"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -1317,7 +1317,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1387,7 +1387,7 @@
         <v>42</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">

--- a/testcase/TestCase.xlsx
+++ b/testcase/TestCase.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaom/Desktop/OSX/xiaoMWork/workspace/AppiumXM/testcase/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13780"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -33,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="116">
   <si>
     <t>用例ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -363,10 +358,6 @@
   </si>
   <si>
     <t>Script</t>
-  </si>
-  <si>
-    <t>执行外部脚本</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Sleep</t>
@@ -652,10 +643,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>数据库::Select A from B Where C = "123"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>ByName::选项菜单</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -706,32 +693,6 @@
   <si>
     <t>PageObject::163EmailLogin("maomingtest2@163.com","kj080982")</t>
     <phoneticPr fontId="7" type="halfwidthKatakana"/>
-  </si>
-  <si>
-    <t>Demo::参数1,参数2,参数3</t>
-    <rPh sb="6" eb="7">
-      <t>can's</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>can's</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>can's</t>
-    </rPh>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Demo("参数1","参数2","参数3")</t>
-    <rPh sb="6" eb="7">
-      <t>can's</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>can's</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>can's</t>
-    </rPh>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>PageObject::QQEmailLogin("1025165571","kj080982")</t>
@@ -745,8 +706,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -893,7 +854,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -963,9 +924,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -980,9 +938,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1313,24 +1268,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" width="9.625" customWidth="1"/>
+    <col min="2" max="2" width="10.375" customWidth="1"/>
+    <col min="3" max="3" width="20.375" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="17.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.875" customWidth="1"/>
+    <col min="6" max="6" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1350,7 +1305,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1370,7 +1325,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1378,7 +1333,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>44</v>
@@ -1387,10 +1342,10 @@
         <v>42</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1407,10 +1362,10 @@
         <v>42</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="19.5" customHeight="1">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1427,47 +1382,47 @@
         <v>42</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>42</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="8">
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>111</v>
-      </c>
       <c r="D7" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>42</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1483,27 +1438,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" customWidth="1"/>
-    <col min="6" max="6" width="42.33203125" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" customWidth="1"/>
-    <col min="8" max="8" width="14.1640625" customWidth="1"/>
-    <col min="9" max="9" width="27.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="18.125" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="6" max="6" width="42.375" customWidth="1"/>
+    <col min="7" max="7" width="8.125" customWidth="1"/>
+    <col min="8" max="8" width="14.125" customWidth="1"/>
+    <col min="9" max="9" width="27.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -1523,7 +1478,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>4</v>
@@ -1538,7 +1493,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -1552,10 +1507,10 @@
         <v>35</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" s="24" t="s">
         <v>71</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>70</v>
       </c>
       <c r="G2" s="2">
         <v>10</v>
@@ -1567,7 +1522,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="27">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -1596,7 +1551,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -1621,7 +1576,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -1634,8 +1589,8 @@
       <c r="D5" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="23" t="s">
-        <v>67</v>
+      <c r="E5" s="14" t="s">
+        <v>66</v>
       </c>
       <c r="F5" s="3">
         <v>5</v>
@@ -1646,66 +1601,16 @@
       <c r="J5" s="2"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="5"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="5"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5">
       <formula1>"NATIVE_APP,WEBVIEW"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H7 H2:H3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5 H2:H3">
       <formula1>"sendKeys,click,verity,longPress,swipe,dragAndDrop,select"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1715,27 +1620,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" customWidth="1"/>
-    <col min="6" max="6" width="42.33203125" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" customWidth="1"/>
-    <col min="8" max="8" width="14.1640625" customWidth="1"/>
-    <col min="9" max="9" width="27.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="18.125" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="6" max="6" width="42.375" customWidth="1"/>
+    <col min="7" max="7" width="8.125" customWidth="1"/>
+    <col min="8" max="8" width="14.125" customWidth="1"/>
+    <col min="9" max="9" width="27.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -1752,10 +1657,10 @@
         <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" s="25" t="s">
-        <v>70</v>
+        <v>67</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>69</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>4</v>
@@ -1770,7 +1675,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -1799,7 +1704,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="27">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -1828,7 +1733,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -1853,7 +1758,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -1878,12 +1783,12 @@
       <c r="J5" s="2"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>26</v>
@@ -1904,12 +1809,12 @@
         <v>14</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -1938,7 +1843,7 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1962,11 +1867,6 @@
       <c r="I8" s="5"/>
       <c r="J8" s="2"/>
       <c r="K8" s="5"/>
-    </row>
-    <row r="9" spans="1:11" ht="28" x14ac:dyDescent="0.15">
-      <c r="I9" s="29" t="s">
-        <v>105</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1989,27 +1889,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" customWidth="1"/>
-    <col min="6" max="6" width="42.33203125" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" customWidth="1"/>
-    <col min="8" max="8" width="14.1640625" customWidth="1"/>
-    <col min="9" max="9" width="27.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="18.125" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="6" max="6" width="42.375" customWidth="1"/>
+    <col min="7" max="7" width="8.125" customWidth="1"/>
+    <col min="8" max="8" width="14.125" customWidth="1"/>
+    <col min="9" max="9" width="27.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -2026,10 +1926,10 @@
         <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" s="25" t="s">
-        <v>70</v>
+        <v>67</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>69</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>4</v>
@@ -2044,7 +1944,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" s="16" customFormat="1">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -2069,7 +1969,7 @@
       <c r="J2" s="17"/>
       <c r="K2" s="17"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -2100,7 +2000,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -2129,7 +2029,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -2154,7 +2054,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -2201,27 +2101,27 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1"/>
-    <col min="6" max="6" width="42.33203125" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" customWidth="1"/>
-    <col min="8" max="8" width="14.1640625" customWidth="1"/>
-    <col min="9" max="9" width="27.1640625" customWidth="1"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="17.625" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="18.625" customWidth="1"/>
+    <col min="5" max="5" width="14.625" customWidth="1"/>
+    <col min="6" max="6" width="42.375" customWidth="1"/>
+    <col min="7" max="7" width="8.125" customWidth="1"/>
+    <col min="8" max="8" width="14.125" customWidth="1"/>
+    <col min="9" max="9" width="27.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -2238,10 +2138,10 @@
         <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>4</v>
@@ -2256,7 +2156,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -2285,7 +2185,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="27">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -2314,7 +2214,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -2339,7 +2239,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -2385,28 +2285,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView topLeftCell="A32" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="4" width="22.83203125" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" customWidth="1"/>
-    <col min="6" max="6" width="42.33203125" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" customWidth="1"/>
-    <col min="10" max="10" width="7.83203125" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="22.875" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="6" max="6" width="42.375" customWidth="1"/>
+    <col min="7" max="7" width="8.125" customWidth="1"/>
+    <col min="8" max="8" width="8.625" customWidth="1"/>
+    <col min="9" max="9" width="15.375" customWidth="1"/>
+    <col min="10" max="10" width="7.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -2426,7 +2326,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>4</v>
@@ -2441,22 +2341,22 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="27">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F2" s="13" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="3"/>
@@ -2464,7 +2364,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -2475,13 +2375,13 @@
         <v>23</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>77</v>
       </c>
       <c r="G3" s="2">
         <v>10</v>
@@ -2493,7 +2393,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -2504,13 +2404,13 @@
         <v>24</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>106</v>
+        <v>71</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>104</v>
       </c>
       <c r="G4" s="8">
         <v>10</v>
@@ -2522,7 +2422,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -2533,13 +2433,13 @@
         <v>25</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>83</v>
+        <v>71</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>82</v>
       </c>
       <c r="G5" s="8">
         <v>10</v>
@@ -2551,7 +2451,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -2562,13 +2462,13 @@
         <v>26</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>84</v>
+        <v>71</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>83</v>
       </c>
       <c r="G6" s="8">
         <v>10</v>
@@ -2580,7 +2480,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -2590,11 +2490,11 @@
       <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="28" t="s">
-        <v>90</v>
+      <c r="D7" s="27" t="s">
+        <v>89</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F7" s="3">
         <v>10</v>
@@ -2605,24 +2505,24 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="C8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="28" t="s">
+      <c r="E8" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>99</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -2630,7 +2530,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" ht="27">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -2638,16 +2538,16 @@
         <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>85</v>
+        <v>71</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>84</v>
       </c>
       <c r="G9" s="8">
         <v>10</v>
@@ -2659,7 +2559,7 @@
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
@@ -2667,13 +2567,13 @@
         <v>31</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>94</v>
+        <v>85</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>93</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F10" s="3">
         <v>3</v>
@@ -2684,7 +2584,7 @@
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -2692,16 +2592,16 @@
         <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>92</v>
+        <v>87</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>91</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="3"/>
@@ -2709,21 +2609,21 @@
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>90</v>
+        <v>102</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>89</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F12" s="3">
         <v>10</v>
@@ -2752,28 +2652,28 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="4" width="22.83203125" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" customWidth="1"/>
-    <col min="6" max="6" width="58.1640625" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" customWidth="1"/>
-    <col min="10" max="10" width="7.83203125" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="22.875" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="6" max="6" width="58.125" customWidth="1"/>
+    <col min="7" max="7" width="8.125" customWidth="1"/>
+    <col min="8" max="8" width="8.625" customWidth="1"/>
+    <col min="9" max="9" width="15.375" customWidth="1"/>
+    <col min="10" max="10" width="7.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -2793,7 +2693,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>4</v>
@@ -2808,7 +2708,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="27">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -2817,13 +2717,13 @@
         <v>22</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="3"/>
@@ -2831,22 +2731,22 @@
       <c r="J2" s="2"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="27">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>113</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>115</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="3"/>

--- a/testcase/TestCase.xlsx
+++ b/testcase/TestCase.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28209"/>
   <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaom/Desktop/OSX/xiaoMWork/workspace/AppiumXM/testcase/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27100" windowHeight="13860" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="115">
   <si>
     <t>用例ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -550,10 +555,6 @@
   <si>
     <t>NO</t>
     <phoneticPr fontId="7" type="halfwidthKatakana"/>
-  </si>
-  <si>
-    <t>NATIVE_APP</t>
-    <phoneticPr fontId="8" type="halfwidthKatakana"/>
   </si>
   <si>
     <t>滑动（执行外部脚本）</t>
@@ -695,19 +696,19 @@
     <phoneticPr fontId="7" type="halfwidthKatakana"/>
   </si>
   <si>
-    <t>PageObject::QQEmailLogin("1025165571","kj080982")</t>
+    <t>YES</t>
     <phoneticPr fontId="7" type="halfwidthKatakana"/>
   </si>
   <si>
-    <t>YES</t>
+    <t>PageObject::QQEmailLogin("1025165571","*********")</t>
     <phoneticPr fontId="7" type="halfwidthKatakana"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -764,13 +765,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -854,7 +848,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -938,6 +932,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1268,24 +1265,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.625" customWidth="1"/>
-    <col min="2" max="2" width="10.375" customWidth="1"/>
-    <col min="3" max="3" width="20.375" customWidth="1"/>
-    <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="17.875" customWidth="1"/>
-    <col min="6" max="6" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1305,17 +1302,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="23" t="s">
         <v>28</v>
       </c>
       <c r="E2" s="9" t="s">
@@ -1325,17 +1322,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="23" t="s">
         <v>44</v>
       </c>
       <c r="E3" s="9" t="s">
@@ -1345,17 +1342,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="23" t="s">
         <v>50</v>
       </c>
       <c r="E4" s="9" t="s">
@@ -1365,17 +1362,17 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="19.5" customHeight="1">
+    <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="23" t="s">
         <v>61</v>
       </c>
       <c r="E5" s="9" t="s">
@@ -1385,18 +1382,18 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>110</v>
+      <c r="C6" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>42</v>
@@ -1405,18 +1402,18 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D7" s="8" t="s">
         <v>106</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>105</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>42</v>
@@ -1438,27 +1435,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="10.375" customWidth="1"/>
-    <col min="4" max="4" width="18.125" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
-    <col min="6" max="6" width="42.375" customWidth="1"/>
-    <col min="7" max="7" width="8.125" customWidth="1"/>
-    <col min="8" max="8" width="14.125" customWidth="1"/>
-    <col min="9" max="9" width="27.125" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" customWidth="1"/>
+    <col min="6" max="6" width="42.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" customWidth="1"/>
+    <col min="9" max="9" width="27.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -1493,7 +1490,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -1522,7 +1519,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" ht="27">
+    <row r="3" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -1551,7 +1548,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -1576,7 +1573,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -1620,27 +1617,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="10.375" customWidth="1"/>
-    <col min="4" max="4" width="18.125" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
-    <col min="6" max="6" width="42.375" customWidth="1"/>
-    <col min="7" max="7" width="8.125" customWidth="1"/>
-    <col min="8" max="8" width="14.125" customWidth="1"/>
-    <col min="9" max="9" width="27.125" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" customWidth="1"/>
+    <col min="6" max="6" width="42.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -1675,7 +1672,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -1692,7 +1689,7 @@
         <v>21</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="G2" s="2">
         <v>5</v>
@@ -1704,7 +1701,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" ht="27">
+    <row r="3" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -1733,7 +1730,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -1758,7 +1755,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -1783,7 +1780,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -1809,12 +1806,12 @@
         <v>14</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -1843,7 +1840,7 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1889,27 +1886,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="10.375" customWidth="1"/>
-    <col min="4" max="4" width="18.125" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
-    <col min="6" max="6" width="42.375" customWidth="1"/>
-    <col min="7" max="7" width="8.125" customWidth="1"/>
-    <col min="8" max="8" width="14.125" customWidth="1"/>
-    <col min="9" max="9" width="27.125" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" customWidth="1"/>
+    <col min="6" max="6" width="42.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" customWidth="1"/>
+    <col min="9" max="9" width="27.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1944,7 +1941,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="16" customFormat="1">
+    <row r="2" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -1969,7 +1966,7 @@
       <c r="J2" s="17"/>
       <c r="K2" s="17"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -2000,7 +1997,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -2029,7 +2026,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -2054,7 +2051,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -2101,27 +2098,27 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
-    <col min="2" max="2" width="17.625" customWidth="1"/>
-    <col min="3" max="3" width="10.375" customWidth="1"/>
-    <col min="4" max="4" width="18.625" customWidth="1"/>
-    <col min="5" max="5" width="14.625" customWidth="1"/>
-    <col min="6" max="6" width="42.375" customWidth="1"/>
-    <col min="7" max="7" width="8.125" customWidth="1"/>
-    <col min="8" max="8" width="14.125" customWidth="1"/>
-    <col min="9" max="9" width="27.125" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="42.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" customWidth="1"/>
+    <col min="9" max="9" width="27.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -2156,7 +2153,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -2185,7 +2182,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" ht="27">
+    <row r="3" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -2214,7 +2211,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -2239,7 +2236,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -2285,28 +2282,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="10.375" customWidth="1"/>
-    <col min="4" max="4" width="22.875" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
-    <col min="6" max="6" width="42.375" customWidth="1"/>
-    <col min="7" max="7" width="8.125" customWidth="1"/>
-    <col min="8" max="8" width="8.625" customWidth="1"/>
-    <col min="9" max="9" width="15.375" customWidth="1"/>
-    <col min="10" max="10" width="7.875" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.83203125" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" customWidth="1"/>
+    <col min="6" max="6" width="42.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" customWidth="1"/>
+    <col min="10" max="10" width="7.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -2341,7 +2338,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="27">
+    <row r="2" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -2350,10 +2347,10 @@
         <v>90</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>114</v>
@@ -2364,7 +2361,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -2393,7 +2390,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -2410,7 +2407,7 @@
         <v>71</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G4" s="8">
         <v>10</v>
@@ -2422,12 +2419,12 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>25</v>
@@ -2451,7 +2448,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -2480,7 +2477,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -2505,24 +2502,22 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>95</v>
-      </c>
+      <c r="B8" s="7"/>
       <c r="C8" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D8" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>98</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -2530,7 +2525,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:11" ht="27">
+    <row r="9" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -2559,13 +2554,11 @@
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="B10" s="7"/>
       <c r="C10" s="2" t="s">
         <v>85</v>
       </c>
@@ -2584,13 +2577,11 @@
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="B11" s="7"/>
       <c r="C11" s="2" t="s">
         <v>87</v>
       </c>
@@ -2609,15 +2600,13 @@
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>31</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="B12" s="7"/>
       <c r="C12" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D12" s="27" t="s">
         <v>89</v>
@@ -2652,28 +2641,28 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="10.375" customWidth="1"/>
-    <col min="4" max="4" width="22.875" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
-    <col min="6" max="6" width="58.125" customWidth="1"/>
-    <col min="7" max="7" width="8.125" customWidth="1"/>
-    <col min="8" max="8" width="8.625" customWidth="1"/>
-    <col min="9" max="9" width="15.375" customWidth="1"/>
-    <col min="10" max="10" width="7.875" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.83203125" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" customWidth="1"/>
+    <col min="6" max="6" width="58.1640625" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" customWidth="1"/>
+    <col min="10" max="10" width="7.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -2708,7 +2697,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="27">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -2717,13 +2706,13 @@
         <v>22</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="3"/>
@@ -2731,22 +2720,22 @@
       <c r="J2" s="2"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" ht="27">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>112</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>113</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="3"/>
@@ -2755,7 +2744,7 @@
       <c r="K3" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3">
       <formula1>"NATIVE_APP,WEBVIEW"</formula1>

--- a/testcase/TestCase.xlsx
+++ b/testcase/TestCase.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="114">
   <si>
     <t>用例ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -335,10 +335,6 @@
   </si>
   <si>
     <t>打开GitHub首页</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>NATIVE_APP</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1287,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>1</v>
@@ -1310,7 +1306,7 @@
         <v>28</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>28</v>
@@ -1330,7 +1326,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>44</v>
@@ -1359,7 +1355,7 @@
         <v>42</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1367,19 +1363,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5" s="28" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>42</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -1387,19 +1383,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>42</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -1407,19 +1403,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>42</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1475,7 +1471,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>4</v>
@@ -1504,10 +1500,10 @@
         <v>35</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G2" s="2">
         <v>10</v>
@@ -1587,7 +1583,7 @@
         <v>43</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F5" s="3">
         <v>5</v>
@@ -1620,8 +1616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1654,10 +1650,10 @@
         <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>4</v>
@@ -1689,7 +1685,7 @@
         <v>21</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G2" s="2">
         <v>5</v>
@@ -1759,9 +1755,7 @@
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="B5" s="20"/>
       <c r="C5" s="2" t="s">
         <v>25</v>
       </c>
@@ -1806,14 +1800,14 @@
         <v>14</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>32</v>
@@ -1844,9 +1838,7 @@
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>32</v>
-      </c>
+      <c r="B8" s="7"/>
       <c r="C8" s="2" t="s">
         <v>25</v>
       </c>
@@ -1923,10 +1915,10 @@
         <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>4</v>
@@ -2068,7 +2060,7 @@
         <v>20</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="5"/>
@@ -2135,10 +2127,10 @@
         <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>4</v>
@@ -2323,7 +2315,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>4</v>
@@ -2344,16 +2336,16 @@
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="F2" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="3"/>
@@ -2372,13 +2364,13 @@
         <v>23</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="G3" s="2">
         <v>10</v>
@@ -2401,13 +2393,13 @@
         <v>24</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G4" s="8">
         <v>10</v>
@@ -2430,13 +2422,13 @@
         <v>25</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G5" s="8">
         <v>10</v>
@@ -2459,13 +2451,13 @@
         <v>26</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G6" s="8">
         <v>10</v>
@@ -2488,10 +2480,10 @@
         <v>27</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F7" s="3">
         <v>10</v>
@@ -2504,20 +2496,20 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D8" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>97</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -2533,16 +2525,16 @@
         <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G9" s="8">
         <v>10</v>
@@ -2560,13 +2552,13 @@
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F10" s="3">
         <v>3</v>
@@ -2583,16 +2575,16 @@
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D11" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="3"/>
@@ -2602,17 +2594,17 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F12" s="3">
         <v>10</v>
@@ -2682,7 +2674,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>4</v>
@@ -2706,13 +2698,13 @@
         <v>22</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="3"/>
@@ -2726,16 +2718,16 @@
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>111</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>112</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="3"/>
